--- a/result/federated_learning_time.xlsx
+++ b/result/federated_learning_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024mem\AI-project\FedConIoT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248FB1C-8D8C-47F1-B199-9B96F7E30252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59AEA4-B9BB-454E-B18B-C40C4155E9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,9 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -627,7 +629,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">

--- a/result/federated_learning_time.xlsx
+++ b/result/federated_learning_time.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024mem\AI-project\FedConIoT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59AEA4-B9BB-454E-B18B-C40C4155E9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058ED55-E574-4DB1-8E15-DCE02F01C040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Device Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Percentage of saved time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4J+3R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2J+5R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,7 +123,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Training Efficency</t>
+    <t>DFL Training Efficency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFL Training Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local epochs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3J+4R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5J+2R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +178,79 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -216,10 +314,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +334,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,8 +365,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,6 +382,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="time_2024-06-25_16-25-03"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="52">
+          <cell r="B52">
+            <v>2.6219450999999996</v>
+          </cell>
+          <cell r="C52">
+            <v>1.9992218000000006</v>
+          </cell>
+          <cell r="D52">
+            <v>2.6938581399999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,258 +683,551 @@
     <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.7895484599999989</v>
+      </c>
+      <c r="F2" s="3">
+        <v>18.93348666</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6.3421651599999995</v>
+      </c>
+      <c r="H2" s="7">
+        <f>SUM(E2:G2)</f>
+        <v>30.065200279999999</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I11" si="0">D2*3/H2</f>
+        <v>99.783137050833574</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4.0200503000000003</v>
+      </c>
+      <c r="K2" s="4">
+        <v>16.827052800000001</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3.5834891799999995</v>
+      </c>
+      <c r="M2" s="8">
+        <f>SUM(J2:L2)</f>
+        <v>24.430592280000003</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" ref="N2:N11" si="1">D2*3/M2</f>
+        <v>122.79685918445526</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" ref="O2:O11" si="2">(N2-I2)/I2</f>
+        <v>0.23063738837853495</v>
+      </c>
+      <c r="P2" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2777</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.1418664400000007</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.1518541200000003</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.44892668</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H11" si="3">SUM(E3:G3)</f>
+        <v>8.7426472400000002</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>952.91503492024685</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'[1]time_2024-06-25_16-25-03'!B52</f>
+        <v>2.6219450999999996</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'[1]time_2024-06-25_16-25-03'!C52</f>
+        <v>1.9992218000000006</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'[1]time_2024-06-25_16-25-03'!D52</f>
+        <v>2.6938581399999997</v>
+      </c>
+      <c r="M3" s="8">
+        <f>SUM(J3:L3)</f>
+        <v>7.3150250400000001</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>1138.8887877272393</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" si="2"/>
+        <v>0.19516299564163908</v>
+      </c>
+      <c r="P3" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.6633250799999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17.037455079999997</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.0284909199999994</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUM(E4:G4)</f>
+        <v>30.729271079999997</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>136.67750169100336</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4.551778259999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>17.011690479999995</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4.529061819999999</v>
+      </c>
+      <c r="M4" s="8">
+        <f>SUM(J4:L4)</f>
+        <v>26.092530559999993</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>160.96560624283126</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17770374971250033</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <f>1620+200*4</f>
+        <v>2420</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.73058362</v>
+      </c>
+      <c r="F5" s="3">
+        <v>16.801178480000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.3185158000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="3"/>
+        <v>29.850277900000002</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>243.2138161098996</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3.4967972600000001</v>
+      </c>
+      <c r="K5" s="4">
+        <v>16.739685179999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4.4068641399999997</v>
+      </c>
+      <c r="M5" s="8">
+        <f>SUM(J5:L5)</f>
+        <v>24.643346579999999</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>294.60284448103556</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="2"/>
+        <v>0.21129156720239572</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <f>2777+400</f>
+        <v>3177</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.7760789799999994</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16.658446119999997</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.1776180600000021</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="3"/>
+        <v>29.612143159999995</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>321.8612022946873</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4.1907167200000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>16.478673139999998</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4.0811739000000005</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:M11" si="4">SUM(J6:L6)</f>
+        <v>24.750563759999999</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>385.08213761996348</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.19642297634678196</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.3902966800000014</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16.902934819999995</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.9984185599999993</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="3"/>
+        <v>34.291650059999995</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>174.9697080630946</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5.8373595599999986</v>
+      </c>
+      <c r="K7" s="4">
+        <v>17.122628420000002</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6.2445531400000007</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="4"/>
+        <v>29.204541120000002</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>205.44750130968671</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17418897010219467</v>
+      </c>
+      <c r="P7" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3777</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.6684282200000027</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17.041328839999995</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9.4707650600000015</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="3"/>
+        <v>34.180522119999999</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>331.50459083742049</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4.7226280000000003</v>
+      </c>
+      <c r="K8" s="4">
+        <v>16.905315959999999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>5.5986875600000001</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="4"/>
+        <v>27.226631519999998</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>416.1734069701767</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.25540767299443001</v>
+      </c>
+      <c r="P8" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="2">
+        <v>4377</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.8152066800000011</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17.200116879999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12.286752679999999</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="3"/>
+        <v>39.302076239999998</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>334.10448648603</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.8478130800000008</v>
+      </c>
+      <c r="K9" s="4">
+        <v>16.977295139999992</v>
+      </c>
+      <c r="L9" s="4">
+        <v>6.5970377599999992</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="4"/>
+        <v>29.422145979999993</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>446.29647371493337</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.33579910407337343</v>
+      </c>
+      <c r="P9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>3620</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9.7809355599999996</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17.001132680000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12.4205205</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
+        <v>39.202588740000003</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>277.02252195705375</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.2050049200000004</v>
+      </c>
+      <c r="K10" s="4">
+        <v>16.996555420000004</v>
+      </c>
+      <c r="L10" s="4">
+        <v>6.8621308399999998</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="4"/>
+        <v>30.063691180000003</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>361.23308794578958</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.30398454751556558</v>
+      </c>
+      <c r="P10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -786,20 +1235,84 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3777</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11.28022502</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18.56699776</v>
+      </c>
+      <c r="G11" s="3">
+        <v>14.44351206</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="3"/>
+        <v>44.290734839999999</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>255.83228729288791</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6.35874424</v>
+      </c>
+      <c r="K11" s="4">
+        <v>17.04985284</v>
+      </c>
+      <c r="L11" s="4">
+        <v>7.8152010799999996</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="4"/>
+        <v>31.223798160000001</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>362.89627360312141</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.41849286281704545</v>
+      </c>
+      <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
